--- a/data.xlsx
+++ b/data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bandara\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8280" windowHeight="4455" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="pesan" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="123">
   <si>
     <t>Username</t>
   </si>
@@ -82,6 +82,9 @@
     <t>GD01</t>
   </si>
   <si>
+    <t>GARUDA INDONESIA</t>
+  </si>
+  <si>
     <t>garuda.jpg</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>AA01</t>
   </si>
   <si>
+    <t>AIR ASIA</t>
+  </si>
+  <si>
     <t>GD03</t>
   </si>
   <si>
@@ -100,6 +106,105 @@
     <t>GI009</t>
   </si>
   <si>
+    <t>S1236</t>
+  </si>
+  <si>
+    <t>SUSI AIR</t>
+  </si>
+  <si>
+    <t>QZ7631</t>
+  </si>
+  <si>
+    <t>AIRASIA</t>
+  </si>
+  <si>
+    <t>QG926</t>
+  </si>
+  <si>
+    <t>CITILINK</t>
+  </si>
+  <si>
+    <t>XN738</t>
+  </si>
+  <si>
+    <t>EXPRESS AIR</t>
+  </si>
+  <si>
+    <t>JT911</t>
+  </si>
+  <si>
+    <t>LION AIR</t>
+  </si>
+  <si>
+    <t>QZ7913</t>
+  </si>
+  <si>
+    <t>JT945</t>
+  </si>
+  <si>
+    <t>QZ7582</t>
+  </si>
+  <si>
+    <t>JT951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LION AIR </t>
+  </si>
+  <si>
+    <t>JT960</t>
+  </si>
+  <si>
+    <t>QZ7987</t>
+  </si>
+  <si>
+    <t>GA335</t>
+  </si>
+  <si>
+    <t>GA360</t>
+  </si>
+  <si>
+    <t>QZ7917</t>
+  </si>
+  <si>
+    <t>IW1811</t>
+  </si>
+  <si>
+    <t>WINGS AIR</t>
+  </si>
+  <si>
+    <t>JT905</t>
+  </si>
+  <si>
+    <t>QG889</t>
+  </si>
+  <si>
+    <t>JT950</t>
+  </si>
+  <si>
+    <t>JT902</t>
+  </si>
+  <si>
+    <t>JT961</t>
+  </si>
+  <si>
+    <t>XN860</t>
+  </si>
+  <si>
+    <t>XN741</t>
+  </si>
+  <si>
+    <t>QZ7911</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>JT903</t>
+  </si>
+  <si>
+    <t>QZ7633</t>
+  </si>
+  <si>
     <t>Tujuan</t>
   </si>
   <si>
@@ -112,19 +217,130 @@
     <t>Keterangan</t>
   </si>
   <si>
-    <t>Jakarta</t>
+    <t>JAKARTA</t>
   </si>
   <si>
     <t>Estimated</t>
   </si>
   <si>
-    <t>Surabaya</t>
+    <t>SURABAYA</t>
   </si>
   <si>
     <t>Scheduled</t>
   </si>
   <si>
-    <t>Bali</t>
+    <t>BALI</t>
+  </si>
+  <si>
+    <t>NUSAWIRU</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>08:10</t>
+  </si>
+  <si>
+    <t>DENPASAR</t>
+  </si>
+  <si>
+    <t>08:25</t>
+  </si>
+  <si>
+    <t>PADANG</t>
+  </si>
+  <si>
+    <t>08:35</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>09:25</t>
+  </si>
+  <si>
+    <t>BANJARMASIN</t>
+  </si>
+  <si>
+    <t>09:50</t>
+  </si>
+  <si>
+    <t>PEKANBARU</t>
+  </si>
+  <si>
+    <t>10:18</t>
+  </si>
+  <si>
+    <t>10:45</t>
+  </si>
+  <si>
+    <t>MEDAN</t>
+  </si>
+  <si>
+    <t>11:16</t>
+  </si>
+  <si>
+    <t>11:50</t>
+  </si>
+  <si>
+    <t>11:27</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>YOGYAKARTA</t>
+  </si>
+  <si>
+    <t>12:45</t>
+  </si>
+  <si>
+    <t>13:05</t>
+  </si>
+  <si>
+    <t>13:20</t>
+  </si>
+  <si>
+    <t>BATAM</t>
+  </si>
+  <si>
+    <t>13:45</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>14:15</t>
+  </si>
+  <si>
+    <t>PONTIANAK</t>
+  </si>
+  <si>
+    <t>14:40</t>
+  </si>
+  <si>
+    <t>PALEMBANG</t>
+  </si>
+  <si>
+    <t>15:10</t>
+  </si>
+  <si>
+    <t>15:35</t>
+  </si>
+  <si>
+    <t>15:55</t>
+  </si>
+  <si>
+    <t>16:10</t>
+  </si>
+  <si>
+    <t>16:25</t>
+  </si>
+  <si>
+    <t>16:40</t>
   </si>
   <si>
     <t>Dari</t>
@@ -166,273 +382,27 @@
     <t>2016-04-12 04:41:29</t>
   </si>
   <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>NUSAWIRU</t>
-  </si>
-  <si>
-    <t>SURABAYA</t>
-  </si>
-  <si>
-    <t>DENPASAR</t>
-  </si>
-  <si>
-    <t>PADANG</t>
-  </si>
-  <si>
-    <t>BANJARMASIN</t>
-  </si>
-  <si>
-    <t>PEKANBARU</t>
-  </si>
-  <si>
-    <t>MEDAN</t>
-  </si>
-  <si>
-    <t>YOGYAKARTA</t>
-  </si>
-  <si>
-    <t>BATAM</t>
-  </si>
-  <si>
-    <t>PONTIANAK</t>
-  </si>
-  <si>
-    <t>PALEMBANG</t>
-  </si>
-  <si>
-    <t>SUSI AIR</t>
-  </si>
-  <si>
-    <t>AIRASIA</t>
-  </si>
-  <si>
-    <t>CITILINK</t>
-  </si>
-  <si>
-    <t>EXPRESS AIR</t>
-  </si>
-  <si>
-    <t>LION AIR</t>
-  </si>
-  <si>
-    <t>AIR ASIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LION AIR </t>
-  </si>
-  <si>
-    <t>GARUDA INDONESIA</t>
-  </si>
-  <si>
-    <t>WINGS AIR</t>
-  </si>
-  <si>
-    <t>S1236</t>
-  </si>
-  <si>
-    <t>QZ7631</t>
-  </si>
-  <si>
-    <t>QG926</t>
-  </si>
-  <si>
-    <t>XN738</t>
-  </si>
-  <si>
-    <t>JT911</t>
-  </si>
-  <si>
-    <t>QZ7913</t>
-  </si>
-  <si>
-    <t>JT945</t>
-  </si>
-  <si>
-    <t>QZ7582</t>
-  </si>
-  <si>
-    <t>JT951</t>
-  </si>
-  <si>
-    <t>JT960</t>
-  </si>
-  <si>
-    <t>QZ7987</t>
-  </si>
-  <si>
-    <t>GA335</t>
-  </si>
-  <si>
-    <t>GA360</t>
-  </si>
-  <si>
-    <t>QZ7917</t>
-  </si>
-  <si>
-    <t>IW1811</t>
-  </si>
-  <si>
-    <t>JT905</t>
-  </si>
-  <si>
-    <t>QG889</t>
-  </si>
-  <si>
-    <t>JT950</t>
-  </si>
-  <si>
-    <t>JT902</t>
-  </si>
-  <si>
-    <t>JT961</t>
-  </si>
-  <si>
-    <t>XN860</t>
-  </si>
-  <si>
-    <t>XN741</t>
-  </si>
-  <si>
-    <t>QZ7911</t>
-  </si>
-  <si>
-    <t>JT903</t>
-  </si>
-  <si>
-    <t>QZ7633</t>
-  </si>
-  <si>
-    <t>04:25</t>
-  </si>
-  <si>
-    <t>04:50</t>
-  </si>
-  <si>
-    <t>05:18</t>
-  </si>
-  <si>
-    <t>05:45</t>
-  </si>
-  <si>
-    <t>06:50</t>
-  </si>
-  <si>
-    <t>06:16</t>
-  </si>
-  <si>
-    <t>07:27</t>
-  </si>
-  <si>
-    <t>07:50</t>
-  </si>
-  <si>
-    <t>08:20</t>
-  </si>
-  <si>
-    <t>08:45</t>
-  </si>
-  <si>
-    <t>08:55</t>
-  </si>
-  <si>
-    <t>09:45</t>
-  </si>
-  <si>
-    <t>09:19</t>
-  </si>
-  <si>
-    <t>10:10</t>
-  </si>
-  <si>
-    <t>10:35</t>
-  </si>
-  <si>
-    <t>10:55</t>
-  </si>
-  <si>
-    <t>11:10</t>
-  </si>
-  <si>
-    <t>11:25</t>
-  </si>
-  <si>
-    <t>11:35</t>
-  </si>
-  <si>
-    <t>11:50</t>
-  </si>
-  <si>
-    <t>JAKARTA</t>
-  </si>
-  <si>
-    <t>23:45</t>
-  </si>
-  <si>
-    <t>15:50</t>
-  </si>
-  <si>
-    <t>07:00</t>
-  </si>
-  <si>
-    <t>07:05</t>
-  </si>
-  <si>
-    <t>07:15</t>
-  </si>
-  <si>
-    <t>07:25</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>08:10</t>
-  </si>
-  <si>
-    <t>08:25</t>
-  </si>
-  <si>
-    <t>08:35</t>
-  </si>
-  <si>
-    <t>09:00</t>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>21:05</t>
+  </si>
+  <si>
+    <t>21:15</t>
+  </si>
+  <si>
+    <t>21:25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -444,12 +414,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -479,53 +443,53 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -583,7 +547,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -616,26 +580,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -668,23 +615,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -955,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,377 +915,377 @@
         <v>18</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1367,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,16 +1316,16 @@
         <v>14</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1403,470 +1333,484 @@
         <v>18</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="11" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>120</v>
+        <v>69</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>93</v>
+      <c r="C11" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>94</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>95</v>
+        <v>80</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>96</v>
+        <v>66</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>98</v>
+        <v>83</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>97</v>
+        <v>83</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>99</v>
+        <v>72</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>100</v>
+        <v>66</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="C22" s="16" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>115</v>
+        <v>66</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>32</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="23">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E33" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1886,22 +1830,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1923,16 +1867,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1943,16 +1887,16 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1963,16 +1907,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1983,16 +1927,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,16 +1947,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,29 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bandara\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="1" r:id="rId1"/>
-    <sheet name="pesawat" sheetId="2" r:id="rId2"/>
-    <sheet name="jadwal" sheetId="3" r:id="rId3"/>
-    <sheet name="pesan" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="user" sheetId="1" r:id="rId4"/>
+    <sheet name="pesawat" sheetId="2" r:id="rId5"/>
+    <sheet name="jadwal" sheetId="3" r:id="rId6"/>
+    <sheet name="pesan" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>Username</t>
   </si>
@@ -220,18 +216,27 @@
     <t>JAKARTA</t>
   </si>
   <si>
-    <t>Estimated</t>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
   </si>
   <si>
     <t>SURABAYA</t>
   </si>
   <si>
-    <t>Scheduled</t>
+    <t>23:05</t>
   </si>
   <si>
     <t>BALI</t>
   </si>
   <si>
+    <t>23:15</t>
+  </si>
+  <si>
+    <t>23:27</t>
+  </si>
+  <si>
     <t>NUSAWIRU</t>
   </si>
   <si>
@@ -380,37 +385,37 @@
   </si>
   <si>
     <t>2016-04-12 04:41:29</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>21:05</t>
-  </si>
-  <si>
-    <t>21:15</t>
-  </si>
-  <si>
-    <t>21:25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -421,7 +426,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -434,13 +442,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -454,53 +456,90 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="14" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="20" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -790,21 +829,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10.42578125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16.85546875" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -818,7 +860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -832,7 +874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -846,7 +888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -860,7 +902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -875,28 +917,40 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="true" style="0"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15.42578125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -910,7 +964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -924,7 +978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -936,7 +990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
         <v>24</v>
       </c>
@@ -950,7 +1004,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
@@ -964,7 +1018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
@@ -976,7 +1030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="15" t="s">
         <v>27</v>
       </c>
@@ -988,7 +1042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1000,7 +1054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="15" t="s">
         <v>31</v>
       </c>
@@ -1012,7 +1066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="15" t="s">
         <v>33</v>
       </c>
@@ -1024,7 +1078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="15" t="s">
         <v>35</v>
       </c>
@@ -1036,7 +1090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="15" t="s">
         <v>37</v>
       </c>
@@ -1048,7 +1102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="15" t="s">
         <v>38</v>
       </c>
@@ -1060,7 +1114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="15" t="s">
         <v>39</v>
       </c>
@@ -1072,7 +1126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="15" t="s">
         <v>40</v>
       </c>
@@ -1084,7 +1138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="15" t="s">
         <v>42</v>
       </c>
@@ -1096,7 +1150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="15" t="s">
         <v>43</v>
       </c>
@@ -1108,7 +1162,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
@@ -1120,7 +1174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="15" t="s">
         <v>45</v>
       </c>
@@ -1132,7 +1186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="15" t="s">
         <v>46</v>
       </c>
@@ -1144,7 +1198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="15" t="s">
         <v>47</v>
       </c>
@@ -1156,7 +1210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="15" t="s">
         <v>49</v>
       </c>
@@ -1168,7 +1222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="15" t="s">
         <v>50</v>
       </c>
@@ -1180,7 +1234,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="15" t="s">
         <v>51</v>
       </c>
@@ -1192,7 +1246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="15" t="s">
         <v>52</v>
       </c>
@@ -1204,7 +1258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="15" t="s">
         <v>53</v>
       </c>
@@ -1216,7 +1270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="15" t="s">
         <v>54</v>
       </c>
@@ -1228,7 +1282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="15" t="s">
         <v>55</v>
       </c>
@@ -1240,7 +1294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="15" t="s">
         <v>56</v>
       </c>
@@ -1252,7 +1306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="15" t="s">
         <v>57</v>
       </c>
@@ -1264,7 +1318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="15" t="s">
         <v>58</v>
       </c>
@@ -1276,7 +1330,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="15" t="s">
         <v>59</v>
       </c>
@@ -1289,29 +1343,41 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true" style="0"/>
+    <col min="2" max="2" width="11.42578125" customWidth="true" style="0"/>
+    <col min="4" max="4" width="17.28515625" customWidth="true" style="0"/>
+    <col min="5" max="5" width="19.5703125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
@@ -1328,7 +1394,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -1336,44 +1402,44 @@
         <v>64</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
@@ -1381,404 +1447,404 @@
         <v>64</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="15" t="s">
         <v>59</v>
       </c>
@@ -1786,14 +1852,14 @@
         <v>64</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1801,42 +1867,54 @@
         <v>64</v>
       </c>
       <c r="C33" s="23">
-        <v>0.70833333333333337</v>
+        <v>0.70833333333333</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="64.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10.140625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>61</v>
@@ -1845,10 +1923,10 @@
         <v>17</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1856,10 +1934,10 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1867,19 +1945,19 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1887,19 +1965,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1907,19 +1985,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" t="s">
         <v>115</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>116</v>
       </c>
-      <c r="E6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1927,19 +2005,19 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1947,72 +2025,95 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.42578125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16729"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bandara\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="1" r:id="rId4"/>
-    <sheet name="pesawat" sheetId="2" r:id="rId5"/>
-    <sheet name="jadwal" sheetId="3" r:id="rId6"/>
-    <sheet name="pesan" sheetId="4" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId8"/>
+    <sheet name="user" sheetId="1" r:id="rId1"/>
+    <sheet name="pesawat" sheetId="2" r:id="rId2"/>
+    <sheet name="jadwal" sheetId="3" r:id="rId3"/>
+    <sheet name="pesan" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="125">
   <si>
     <t>Username</t>
   </si>
@@ -348,6 +352,9 @@
     <t>16:40</t>
   </si>
   <si>
+    <t>7:08</t>
+  </si>
+  <si>
     <t>Dari</t>
   </si>
   <si>
@@ -385,37 +392,31 @@
   </si>
   <si>
     <t>2016-04-12 04:41:29</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Adaw&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>2016-04-19 02:18:25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -426,10 +427,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -442,7 +440,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -456,90 +460,53 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="49" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="49" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="14" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="49" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="49" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="49" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="49" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="49" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="20" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -829,24 +796,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10.42578125" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16.85546875" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -860,7 +824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -874,7 +838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -888,7 +852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -902,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -917,40 +881,28 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="19.7109375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15.42578125" customWidth="true" style="0"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -964,7 +916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -978,7 +930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -990,7 +942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>24</v>
       </c>
@@ -1004,7 +956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
@@ -1018,7 +970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
@@ -1030,7 +982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>27</v>
       </c>
@@ -1042,7 +994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1054,7 +1006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>31</v>
       </c>
@@ -1066,7 +1018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>33</v>
       </c>
@@ -1078,7 +1030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>35</v>
       </c>
@@ -1090,7 +1042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>37</v>
       </c>
@@ -1102,7 +1054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>38</v>
       </c>
@@ -1114,7 +1066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>39</v>
       </c>
@@ -1126,7 +1078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>40</v>
       </c>
@@ -1138,7 +1090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>42</v>
       </c>
@@ -1150,7 +1102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>43</v>
       </c>
@@ -1162,7 +1114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
@@ -1174,7 +1126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>45</v>
       </c>
@@ -1186,7 +1138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>46</v>
       </c>
@@ -1198,7 +1150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>47</v>
       </c>
@@ -1210,7 +1162,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>49</v>
       </c>
@@ -1222,7 +1174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>50</v>
       </c>
@@ -1234,7 +1186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>51</v>
       </c>
@@ -1246,7 +1198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>52</v>
       </c>
@@ -1258,7 +1210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>53</v>
       </c>
@@ -1270,7 +1222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>54</v>
       </c>
@@ -1282,7 +1234,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>55</v>
       </c>
@@ -1294,7 +1246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>56</v>
       </c>
@@ -1306,7 +1258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>57</v>
       </c>
@@ -1318,7 +1270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>58</v>
       </c>
@@ -1330,7 +1282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>59</v>
       </c>
@@ -1343,41 +1295,29 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true" style="0"/>
-    <col min="2" max="2" width="11.42578125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="17.28515625" customWidth="true" style="0"/>
-    <col min="5" max="5" width="19.5703125" customWidth="true" style="0"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
@@ -1394,7 +1334,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -1409,7 +1349,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -1424,7 +1364,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>24</v>
       </c>
@@ -1439,7 +1379,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
@@ -1454,7 +1394,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
@@ -1469,7 +1409,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>27</v>
       </c>
@@ -1484,7 +1424,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1499,7 +1439,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>31</v>
       </c>
@@ -1514,7 +1454,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>33</v>
       </c>
@@ -1529,7 +1469,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>35</v>
       </c>
@@ -1544,7 +1484,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>37</v>
       </c>
@@ -1559,7 +1499,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>38</v>
       </c>
@@ -1574,7 +1514,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>39</v>
       </c>
@@ -1589,7 +1529,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>40</v>
       </c>
@@ -1604,7 +1544,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>42</v>
       </c>
@@ -1619,7 +1559,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>43</v>
       </c>
@@ -1634,7 +1574,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
@@ -1649,7 +1589,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>45</v>
       </c>
@@ -1664,7 +1604,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>46</v>
       </c>
@@ -1679,7 +1619,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>47</v>
       </c>
@@ -1694,7 +1634,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>49</v>
       </c>
@@ -1709,7 +1649,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>50</v>
       </c>
@@ -1724,7 +1664,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>51</v>
       </c>
@@ -1739,7 +1679,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>52</v>
       </c>
@@ -1754,7 +1694,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>53</v>
       </c>
@@ -1769,7 +1709,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>54</v>
       </c>
@@ -1784,7 +1724,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>55</v>
       </c>
@@ -1799,7 +1739,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>56</v>
       </c>
@@ -1814,7 +1754,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>57</v>
       </c>
@@ -1829,7 +1769,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>58</v>
       </c>
@@ -1844,7 +1784,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>59</v>
       </c>
@@ -1859,62 +1799,50 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="23">
-        <v>0.70833333333333</v>
+      <c r="C33" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="64.85546875" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.140625" customWidth="true" style="0"/>
+    <col min="3" max="3" width="64.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>61</v>
@@ -1923,10 +1851,10 @@
         <v>17</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1934,10 +1862,10 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1945,19 +1873,19 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1965,19 +1893,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
         <v>117</v>
       </c>
-      <c r="E5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1985,19 +1913,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2005,19 +1933,19 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2025,95 +1953,92 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" t="s">
         <v>116</v>
       </c>
+      <c r="F9" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.42578125" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10" customWidth="true" style="0"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>